--- a/labs/w11-mini-proj/mini-proj-app_layouts.xlsx
+++ b/labs/w11-mini-proj/mini-proj-app_layouts.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GG\oosd-cmpu4060\labs\w11-mini-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9782702-B41F-4DF1-A615-151FF31F28D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B59AC5-9CF6-47BE-9189-F328C76B08F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27690" yWindow="345" windowWidth="27075" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27690" yWindow="345" windowWidth="27075" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="match_analysis_layout" sheetId="1" r:id="rId1"/>
     <sheet name="planet_travel_time_layout" sheetId="2" r:id="rId2"/>
+    <sheet name="Gravity" sheetId="3" r:id="rId3"/>
+    <sheet name="mainwindowapp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>Header</t>
   </si>
@@ -197,6 +199,36 @@
   </si>
   <si>
     <t>calculate button</t>
+  </si>
+  <si>
+    <t>&lt; entry&gt;</t>
+  </si>
+  <si>
+    <t>weight 1</t>
+  </si>
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t>object 1 name</t>
+  </si>
+  <si>
+    <t>obj 2 name</t>
+  </si>
+  <si>
+    <t>weight 2</t>
+  </si>
+  <si>
+    <t>Button - Help</t>
+  </si>
+  <si>
+    <t>Button - Match Analysis</t>
+  </si>
+  <si>
+    <t>Button - Planet Travel Time</t>
+  </si>
+  <si>
+    <t>Button - Gravity</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FAF5FE-EF7B-4430-9AAC-F9AEA6016D3A}">
   <dimension ref="B2:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1251,4 +1283,470 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F1C488-5C0C-44D7-9050-376FE56052FC}">
+  <dimension ref="B2:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAFEA12-3392-4F64-8D6C-6EE335E14694}">
+  <dimension ref="B2:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>